--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4465CD-0151-4433-9230-CCEBF8534F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26F303-9986-4091-9D58-47E6C9E96560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +651,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,14 +734,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,16 +750,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,12 +766,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,58 +789,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +815,66 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -870,9 +897,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -910,9 +937,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,26 +972,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,26 +1007,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1197,19 +1190,19 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="58" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="58" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1237,1077 +1230,934 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="20"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="23"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="20"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="20"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="20"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="20"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="20"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="20"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="20"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="23"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="17"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="23"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="23"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="23"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="23"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="23"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="23"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2328,39 +2178,39 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2383,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2406,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2429,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2452,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2475,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2498,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2521,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2544,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2567,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2590,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2613,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2636,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2659,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2682,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2705,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2728,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2751,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2774,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2797,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2820,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2843,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2866,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2903,43 +2753,43 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2965,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2991,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3017,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3043,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3069,7 +2919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3095,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3121,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3147,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3173,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3199,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3225,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3251,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3277,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3303,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3329,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3355,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3381,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3407,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3433,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3459,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3485,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3511,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3537,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3563,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3606,16 +3456,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -3629,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -3643,8 +3493,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3657,8 +3507,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3671,36 +3521,36 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3713,8 +3563,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -3727,819 +3577,676 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="20"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="20"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="20"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="20"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="20"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="23"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="17"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="23"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="24"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="23"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="23"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4557,28 +4264,28 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4592,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4606,7 +4313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4620,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4634,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4648,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4662,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4676,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4690,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4718,32 +4425,32 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4760,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4777,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4794,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4811,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4828,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4845,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4862,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4879,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4896,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4913,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4930,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4947,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4964,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4981,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4998,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5029,36 +4736,36 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5078,7 +4785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5098,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5118,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5138,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5158,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5178,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5198,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5218,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5238,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5258,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5278,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5298,7 +5005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5318,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5338,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5358,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5378,7 +5085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5398,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5418,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5438,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5458,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5478,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -5498,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5532,40 +5239,40 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5588,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5611,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5634,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5657,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5680,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5703,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5726,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5749,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5772,7 +5479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5795,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5818,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5841,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5864,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5887,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5910,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5933,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5956,7 +5663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5979,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -6002,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -6025,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -6048,7 +5755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6071,7 +5778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -6094,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6117,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6155,27 +5862,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6228,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6281,7 +5988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6334,7 +6041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6387,7 +6094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6440,7 +6147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6509,30 +6216,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6662,7 +6369,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6727,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6792,7 +6499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6857,7 +6564,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6937,19 +6644,19 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="58" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="58" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -6963,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6977,1077 +6684,934 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:4" s="41" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:4" s="41" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="20"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="23"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="20"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="20"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="20"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="20"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="20"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="20"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="20"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="23"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="17"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="23"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="23"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="23"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="23"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="23"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="23"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8069,27 +7633,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8142,7 +7706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8195,7 +7759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8248,7 +7812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8301,7 +7865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8354,7 +7918,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8423,30 +7987,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8511,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8576,7 +8140,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8641,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8706,7 +8270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8771,7 +8335,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8854,16 +8418,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -8877,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -8891,8 +8455,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -8905,8 +8469,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -8915,12 +8479,12 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -8929,38 +8493,38 @@
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="43"/>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -8973,8 +8537,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -8987,819 +8551,676 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="20"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="20"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="20"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="20"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="20"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="20"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="23"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="17"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="23"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="24"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="23"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="23"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="23"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9820,31 +9241,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9861,7 +9282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9878,7 +9299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9895,7 +9316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9912,7 +9333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9929,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9946,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9963,7 +9384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9980,7 +9401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -10011,35 +9432,35 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10059,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10079,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10099,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10119,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10139,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10159,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10179,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10199,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10219,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10239,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10259,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10279,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10299,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10319,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10339,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>

--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26F303-9986-4091-9D58-47E6C9E96560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9707EDE-8D60-403B-942E-E822D6FA1F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -801,21 +801,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -855,6 +840,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -863,18 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1190,7 +1190,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,13 +1231,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1245,13 +1245,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1259,13 +1259,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1273,13 +1273,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1287,13 +1287,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1301,63 +1301,63 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1365,13 +1365,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1379,13 +1379,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -1393,13 +1393,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="29" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="23" t="s">
@@ -1407,13 +1407,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="29" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="23" t="s">
@@ -1421,13 +1421,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -1435,13 +1435,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -1449,13 +1449,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1463,30 +1463,30 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
@@ -6684,263 +6684,263 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:4" s="36" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="44"/>
-    </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="D11" s="48"/>
+    </row>
+    <row r="12" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="41" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:4" s="36" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="41" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:4" s="36" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
@@ -8479,7 +8479,7 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">

--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9707EDE-8D60-403B-942E-E822D6FA1F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4528D57-FF27-4E32-8AA2-6D9212B03435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="100">
   <si>
     <t>NOTES</t>
   </si>
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -1193,16 +1193,16 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="58" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D11" s="43"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>84</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>82</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>83</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>85</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>73</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>26</v>
       </c>
@@ -1488,675 +1488,675 @@
       </c>
       <c r="D21" s="40"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="19"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="17"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="17"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="17"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="17"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="17"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="17"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="17"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="17"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="17"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
       <c r="D105" s="14"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
       <c r="D109" s="14"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
     </row>
   </sheetData>
@@ -2178,16 +2178,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2753,17 +2753,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3456,16 +3456,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>64</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>93</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>61</v>
       </c>
@@ -3577,675 +3577,675 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="19"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="17"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="17"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="17"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="17"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="17"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
       <c r="D92" s="14"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
   </sheetData>
@@ -4264,14 +4264,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4425,15 +4425,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4736,16 +4736,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5239,17 +5239,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -5862,27 +5862,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6216,30 +6216,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6647,16 +6647,16 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="58" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="36" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="D9" s="47"/>
     </row>
-    <row r="10" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="D10" s="47"/>
     </row>
-    <row r="11" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>84</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>82</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>83</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>85</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>73</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="36" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="36" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>24</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="36" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="36" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>26</v>
       </c>
@@ -6942,675 +6942,675 @@
       </c>
       <c r="D21" s="45"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="19"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="17"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="17"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="17"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="17"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="17"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="17"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="17"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="17"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="17"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
       <c r="D105" s="14"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
       <c r="D109" s="14"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
     </row>
   </sheetData>
@@ -7633,27 +7633,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7987,30 +7987,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8418,16 +8418,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
@@ -8551,675 +8551,675 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="19"/>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="17"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="17"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="17"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="17"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="17"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="17"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
       <c r="D97" s="14"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
     </row>
   </sheetData>
@@ -9235,20 +9235,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -9265,15 +9265,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
+      <c r="C2">
+        <v>15</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -9282,7 +9282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9429,18 +9429,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>

--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4528D57-FF27-4E32-8AA2-6D9212B03435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB89996-CA99-4444-93C5-0C97556C33B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11235" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -837,15 +837,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -861,20 +852,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1310,7 +1321,7 @@
       <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1324,7 +1335,7 @@
       <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -1336,7 +1347,7 @@
       <c r="C10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -1348,7 +1359,7 @@
       <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
@@ -1472,7 +1483,7 @@
       <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="36" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1486,7 +1497,7 @@
       <c r="C21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -6639,42 +6650,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="58" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="15.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="58" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -6684,307 +6695,307 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="38" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="47"/>
-    </row>
-    <row r="10" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="11" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="36" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="36" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -7023,50 +7034,50 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -7189,16 +7200,16 @@
       <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
@@ -7381,8 +7392,8 @@
       <c r="D102" s="17"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="48"/>
+      <c r="B103" s="48"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
@@ -7433,186 +7444,116 @@
       <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="48"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="48"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="6"/>
+      <c r="A115" s="48"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="53"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="D116" s="6"/>
+      <c r="A116" s="48"/>
+      <c r="B116" s="48"/>
+      <c r="D116" s="53"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="48"/>
+      <c r="B117" s="48"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="D118" s="6"/>
+      <c r="A118" s="48"/>
+      <c r="B118" s="48"/>
+      <c r="D118" s="53"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="D119" s="6"/>
+      <c r="A119" s="48"/>
+      <c r="B119" s="48"/>
+      <c r="D119" s="53"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="48"/>
+      <c r="B120" s="48"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="48"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="D122" s="6"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="48"/>
+      <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="D123" s="6"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="48"/>
+      <c r="D123" s="53"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="D124" s="6"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="D124" s="53"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="D125" s="6"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="48"/>
+      <c r="D125" s="53"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="6"/>
+      <c r="D126" s="53"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="6"/>
+      <c r="D127" s="53"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="6"/>
-    </row>
+      <c r="D128" s="53"/>
+    </row>
+    <row r="129" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D20:D21"/>
@@ -7630,7 +7571,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,320 +7595,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0</v>
+      </c>
+      <c r="D2" s="42">
+        <v>-9</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>-9</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0</v>
+      </c>
+      <c r="H2" s="42">
         <v>200</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="42">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42">
         <v>200</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="42">
         <v>60</v>
       </c>
-      <c r="L2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="L2" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M2" s="42">
+        <v>0</v>
+      </c>
+      <c r="N2" s="42">
+        <v>0</v>
+      </c>
+      <c r="O2" s="42">
+        <v>0</v>
+      </c>
+      <c r="P2" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-9</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42">
+        <v>-9</v>
+      </c>
+      <c r="E3" s="42">
+        <v>2</v>
+      </c>
+      <c r="F3" s="42">
         <v>10.55</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42">
         <v>200</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
         <v>200</v>
       </c>
-      <c r="K3" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M3">
+      <c r="K3" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L3" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M3" s="42">
         <v>25</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="42">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="42">
         <v>20</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="42">
         <v>150</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42">
+        <v>2</v>
+      </c>
+      <c r="F4" s="42">
         <v>17.2</v>
       </c>
-      <c r="G4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="G4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="H4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="I4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="J4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="K4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="N4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="O4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="P4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="Q4" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L5">
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="G5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="H5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="I5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="J5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="K5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L5" s="42">
         <v>25</v>
       </c>
-      <c r="M5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="M5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="N5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="O5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="P5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="Q5" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="B6" s="42">
+        <v>2</v>
+      </c>
+      <c r="C6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="D6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="E6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="F6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="G6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="H6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="I6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="J6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="K6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="N6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="O6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="P6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="Q6" s="42" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7981,10 +7922,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,392 +7952,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0</v>
+      </c>
+      <c r="D2" s="42">
+        <v>-9</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>-9</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0</v>
+      </c>
+      <c r="H2" s="42">
         <v>200</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="42">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42">
         <v>200</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="42">
         <v>60</v>
       </c>
-      <c r="L2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="L2" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M2" s="42">
+        <v>0</v>
+      </c>
+      <c r="N2" s="42">
+        <v>0</v>
+      </c>
+      <c r="O2" s="42">
+        <v>0</v>
+      </c>
+      <c r="P2" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="R2" s="42">
+        <v>0</v>
+      </c>
+      <c r="S2" s="42">
         <v>0.1</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="42">
         <v>0.3</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="42">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-9</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42">
+        <v>-9</v>
+      </c>
+      <c r="E3" s="42">
+        <v>2</v>
+      </c>
+      <c r="F3" s="42">
         <v>10.55</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42">
         <v>200</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
         <v>200</v>
       </c>
-      <c r="K3" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M3">
+      <c r="K3" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L3" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M3" s="42">
         <v>25</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="42">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="42">
         <v>20</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="42">
         <v>150</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="R3" s="42">
+        <v>0</v>
+      </c>
+      <c r="S3" s="42">
+        <v>1</v>
+      </c>
+      <c r="T3" s="42">
+        <v>0</v>
+      </c>
+      <c r="U3" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42">
+        <v>2</v>
+      </c>
+      <c r="F4" s="42">
         <v>17.2</v>
       </c>
-      <c r="G4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="G4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="H4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="I4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="J4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="K4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="N4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="O4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="P4" s="42">
+        <v>-9</v>
+      </c>
+      <c r="Q4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
+      <c r="R4" s="42">
+        <v>1</v>
+      </c>
+      <c r="S4" s="42">
         <v>0.2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="42">
         <v>0.3</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="42">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L5">
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="G5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="H5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="I5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="J5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="K5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L5" s="42">
         <v>25</v>
       </c>
-      <c r="M5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="M5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="N5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="O5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="P5" s="42">
+        <v>-9</v>
+      </c>
+      <c r="Q5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
+      <c r="R5" s="42">
+        <v>2</v>
+      </c>
+      <c r="S5" s="42">
         <v>0.33300000000000002</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="42">
         <v>0.33300000000000002</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="42">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="P6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="B6" s="42">
+        <v>2</v>
+      </c>
+      <c r="C6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="D6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="E6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="F6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="G6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="H6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="I6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="J6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="K6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="L6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="M6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="N6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="O6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="P6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="Q6" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="S6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-9</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="R6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="S6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="T6" s="42">
+        <v>-9</v>
+      </c>
+      <c r="U6" s="42">
         <v>-9</v>
       </c>
     </row>
@@ -8479,7 +8420,7 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8493,7 +8434,7 @@
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -9235,10 +9176,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB89996-CA99-4444-93C5-0C97556C33B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186319D8-A922-495F-9503-D1458834EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11235" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="3450" windowWidth="21600" windowHeight="11235" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
   <si>
     <t>NOTES</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>Must be &gt; 0 for patch-based model; if the patch does not exist in the landscape in the specified year, then the individual will not be initialised</t>
-  </si>
-  <si>
-    <t>Must be &gt;= 0 for cell-based model; if the specified cell (X,Y) lies beyond the landscape boundary, or is unsuitable in the specified year, then the individual will not be initialised</t>
   </si>
   <si>
     <t>Initial no. of individuals in each cell:  0 = at carrying capacity;  1 = at half carrying capacity;     2 = specified no. of individuals</t>
@@ -499,6 +496,12 @@
   </si>
   <si>
     <t>Type of initialisation from species distribution: 0 = All patches within the distribution cells,    1 = Some randomly chosen patches within distribution cells</t>
+  </si>
+  <si>
+    <t>Required for SeedType = 0 only; minX and minY may not be less than 0, maxX and maxY may not be less than corresponding minimum. The origin (0, 0) is the bottom -left corner.</t>
+  </si>
+  <si>
+    <t>Must be &gt;= 0 for cell-based model; if the specified cell (X,Y) lies beyond the landscape boundary, or is unsuitable in the specified year, then the individual will not be initialised. The origin (0, 0) is the bottom -left corner.</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -837,6 +840,15 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -851,41 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1249,10 +1226,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1291,10 +1268,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1321,7 +1298,7 @@
       <c r="C8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="41" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1335,7 +1312,7 @@
       <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -1347,7 +1324,7 @@
       <c r="C10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -1359,7 +1336,7 @@
       <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
@@ -1391,13 +1368,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>50</v>
@@ -1405,58 +1382,58 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="C18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1483,8 +1460,8 @@
       <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>96</v>
+      <c r="D20" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1474,7 @@
       <c r="C21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -2212,7 +2189,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
@@ -2788,7 +2765,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>65</v>
@@ -3534,16 +3511,16 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,7 +3534,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,7 +3548,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,7 +3562,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,7 +4270,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,7 +4432,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>65</v>
@@ -4767,7 +4744,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>60</v>
@@ -5271,7 +5248,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>65</v>
@@ -5931,19 +5908,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5996,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -6049,7 +6026,7 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6102,7 +6079,7 @@
         <v>-9</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6155,7 +6132,7 @@
         <v>-9</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6208,7 +6185,7 @@
         <v>-9</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6288,19 +6265,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>48</v>
@@ -6365,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6430,7 +6407,7 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6495,7 +6472,7 @@
         <v>-9</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -6560,7 +6537,7 @@
         <v>-9</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R5">
         <v>2</v>
@@ -6625,7 +6602,7 @@
         <v>-9</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" s="2">
         <v>-9</v>
@@ -6650,42 +6627,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="58" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="58" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -6696,27 +6673,27 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -6724,41 +6701,41 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>99</v>
+      <c r="C5" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>98</v>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6769,57 +6746,57 @@
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>49</v>
+      <c r="D8" s="41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -6833,7 +6810,7 @@
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -6845,13 +6822,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>50</v>
@@ -6859,65 +6836,65 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="C18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="D18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -6928,74 +6905,74 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>96</v>
+      <c r="D20" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -7034,50 +7011,50 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -7200,16 +7177,16 @@
       <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
@@ -7392,8 +7369,8 @@
       <c r="D102" s="17"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
@@ -7444,116 +7421,116 @@
       <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
-      <c r="B112" s="48"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="53"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
-      <c r="B116" s="48"/>
-      <c r="D116" s="53"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
-      <c r="B117" s="48"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
-      <c r="B118" s="48"/>
-      <c r="D118" s="53"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
-      <c r="B119" s="48"/>
-      <c r="D119" s="53"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
-      <c r="B120" s="48"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
-      <c r="B121" s="48"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
-      <c r="B122" s="48"/>
-      <c r="D122" s="53"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
-      <c r="B123" s="48"/>
-      <c r="D123" s="53"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
-      <c r="D124" s="53"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
-      <c r="B125" s="48"/>
-      <c r="D125" s="53"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="53"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="53"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="53"/>
-    </row>
-    <row r="129" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D20:D21"/>
@@ -7595,321 +7572,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>73</v>
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42">
-        <v>0</v>
-      </c>
-      <c r="D2" s="42">
-        <v>-9</v>
-      </c>
-      <c r="E2" s="42">
-        <v>0</v>
-      </c>
-      <c r="F2" s="42">
-        <v>-9</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>200</v>
       </c>
-      <c r="I2" s="42">
-        <v>0</v>
-      </c>
-      <c r="J2" s="42">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2">
         <v>60</v>
       </c>
-      <c r="L2" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M2" s="42">
-        <v>0</v>
-      </c>
-      <c r="N2" s="42">
-        <v>0</v>
-      </c>
-      <c r="O2" s="42">
-        <v>0</v>
-      </c>
-      <c r="P2" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="42" t="s">
+      <c r="L2">
+        <v>-9</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>10.55</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>-9</v>
+      </c>
+      <c r="L3">
+        <v>-9</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>17.2</v>
+      </c>
+      <c r="G4">
+        <v>-9</v>
+      </c>
+      <c r="H4">
+        <v>-9</v>
+      </c>
+      <c r="I4">
+        <v>-9</v>
+      </c>
+      <c r="J4">
+        <v>-9</v>
+      </c>
+      <c r="K4">
+        <v>-9</v>
+      </c>
+      <c r="L4">
+        <v>-9</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
+        <v>-9</v>
+      </c>
+      <c r="O4">
+        <v>-9</v>
+      </c>
+      <c r="P4">
+        <v>-9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-9</v>
+      </c>
+      <c r="G5">
+        <v>-9</v>
+      </c>
+      <c r="H5">
+        <v>-9</v>
+      </c>
+      <c r="I5">
+        <v>-9</v>
+      </c>
+      <c r="J5">
+        <v>-9</v>
+      </c>
+      <c r="K5">
+        <v>-9</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>-9</v>
+      </c>
+      <c r="N5">
+        <v>-9</v>
+      </c>
+      <c r="O5">
+        <v>-9</v>
+      </c>
+      <c r="P5">
+        <v>-9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-9</v>
+      </c>
+      <c r="D6">
+        <v>-9</v>
+      </c>
+      <c r="E6">
+        <v>-9</v>
+      </c>
+      <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="G6">
+        <v>-9</v>
+      </c>
+      <c r="H6">
+        <v>-9</v>
+      </c>
+      <c r="I6">
+        <v>-9</v>
+      </c>
+      <c r="J6">
+        <v>-9</v>
+      </c>
+      <c r="K6">
+        <v>-9</v>
+      </c>
+      <c r="L6">
+        <v>-9</v>
+      </c>
+      <c r="M6">
+        <v>-9</v>
+      </c>
+      <c r="N6">
+        <v>-9</v>
+      </c>
+      <c r="O6">
+        <v>-9</v>
+      </c>
+      <c r="P6">
+        <v>-9</v>
+      </c>
+      <c r="Q6" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1</v>
-      </c>
-      <c r="D3" s="42">
-        <v>-9</v>
-      </c>
-      <c r="E3" s="42">
-        <v>2</v>
-      </c>
-      <c r="F3" s="42">
-        <v>10.55</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42">
-        <v>200</v>
-      </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42">
-        <v>200</v>
-      </c>
-      <c r="K3" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L3" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M3" s="42">
-        <v>25</v>
-      </c>
-      <c r="N3" s="42">
-        <v>30</v>
-      </c>
-      <c r="O3" s="42">
-        <v>20</v>
-      </c>
-      <c r="P3" s="42">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="D4" s="42">
-        <v>0</v>
-      </c>
-      <c r="E4" s="42">
-        <v>2</v>
-      </c>
-      <c r="F4" s="42">
-        <v>17.2</v>
-      </c>
-      <c r="G4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="H4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="I4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="J4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="K4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="O4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="P4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42">
-        <v>1</v>
-      </c>
-      <c r="C5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="D5" s="42">
-        <v>1</v>
-      </c>
-      <c r="E5" s="42">
-        <v>1</v>
-      </c>
-      <c r="F5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="G5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="H5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="I5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="J5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="K5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L5" s="42">
-        <v>25</v>
-      </c>
-      <c r="M5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="O5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="P5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42">
-        <v>2</v>
-      </c>
-      <c r="C6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="D6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="F6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="G6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="H6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="I6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="K6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="O6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="P6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7952,392 +7929,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="41" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42">
-        <v>0</v>
-      </c>
-      <c r="D2" s="42">
-        <v>-9</v>
-      </c>
-      <c r="E2" s="42">
-        <v>0</v>
-      </c>
-      <c r="F2" s="42">
-        <v>-9</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>200</v>
       </c>
-      <c r="I2" s="42">
-        <v>0</v>
-      </c>
-      <c r="J2" s="42">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2">
         <v>60</v>
       </c>
-      <c r="L2" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M2" s="42">
-        <v>0</v>
-      </c>
-      <c r="N2" s="42">
-        <v>0</v>
-      </c>
-      <c r="O2" s="42">
-        <v>0</v>
-      </c>
-      <c r="P2" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="42" t="s">
+      <c r="L2">
+        <v>-9</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>0.3</v>
+      </c>
+      <c r="U2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>10.55</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>-9</v>
+      </c>
+      <c r="L3">
+        <v>-9</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>17.2</v>
+      </c>
+      <c r="G4">
+        <v>-9</v>
+      </c>
+      <c r="H4">
+        <v>-9</v>
+      </c>
+      <c r="I4">
+        <v>-9</v>
+      </c>
+      <c r="J4">
+        <v>-9</v>
+      </c>
+      <c r="K4">
+        <v>-9</v>
+      </c>
+      <c r="L4">
+        <v>-9</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
+        <v>-9</v>
+      </c>
+      <c r="O4">
+        <v>-9</v>
+      </c>
+      <c r="P4">
+        <v>-9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0.2</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-9</v>
+      </c>
+      <c r="G5">
+        <v>-9</v>
+      </c>
+      <c r="H5">
+        <v>-9</v>
+      </c>
+      <c r="I5">
+        <v>-9</v>
+      </c>
+      <c r="J5">
+        <v>-9</v>
+      </c>
+      <c r="K5">
+        <v>-9</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>-9</v>
+      </c>
+      <c r="N5">
+        <v>-9</v>
+      </c>
+      <c r="O5">
+        <v>-9</v>
+      </c>
+      <c r="P5">
+        <v>-9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-9</v>
+      </c>
+      <c r="D6">
+        <v>-9</v>
+      </c>
+      <c r="E6">
+        <v>-9</v>
+      </c>
+      <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="G6">
+        <v>-9</v>
+      </c>
+      <c r="H6">
+        <v>-9</v>
+      </c>
+      <c r="I6">
+        <v>-9</v>
+      </c>
+      <c r="J6">
+        <v>-9</v>
+      </c>
+      <c r="K6">
+        <v>-9</v>
+      </c>
+      <c r="L6">
+        <v>-9</v>
+      </c>
+      <c r="M6">
+        <v>-9</v>
+      </c>
+      <c r="N6">
+        <v>-9</v>
+      </c>
+      <c r="O6">
+        <v>-9</v>
+      </c>
+      <c r="P6">
+        <v>-9</v>
+      </c>
+      <c r="Q6" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="42">
-        <v>0</v>
-      </c>
-      <c r="S2" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="T2" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="U2" s="42">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1</v>
-      </c>
-      <c r="D3" s="42">
-        <v>-9</v>
-      </c>
-      <c r="E3" s="42">
-        <v>2</v>
-      </c>
-      <c r="F3" s="42">
-        <v>10.55</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42">
-        <v>200</v>
-      </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42">
-        <v>200</v>
-      </c>
-      <c r="K3" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L3" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M3" s="42">
-        <v>25</v>
-      </c>
-      <c r="N3" s="42">
-        <v>30</v>
-      </c>
-      <c r="O3" s="42">
-        <v>20</v>
-      </c>
-      <c r="P3" s="42">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="42">
-        <v>0</v>
-      </c>
-      <c r="S3" s="42">
-        <v>1</v>
-      </c>
-      <c r="T3" s="42">
-        <v>0</v>
-      </c>
-      <c r="U3" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="D4" s="42">
-        <v>0</v>
-      </c>
-      <c r="E4" s="42">
-        <v>2</v>
-      </c>
-      <c r="F4" s="42">
-        <v>17.2</v>
-      </c>
-      <c r="G4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="H4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="I4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="J4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="K4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="O4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="P4" s="42">
-        <v>-9</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="42">
-        <v>1</v>
-      </c>
-      <c r="S4" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="T4" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="U4" s="42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42">
-        <v>1</v>
-      </c>
-      <c r="C5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="D5" s="42">
-        <v>1</v>
-      </c>
-      <c r="E5" s="42">
-        <v>1</v>
-      </c>
-      <c r="F5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="G5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="H5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="I5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="J5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="K5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L5" s="42">
-        <v>25</v>
-      </c>
-      <c r="M5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="O5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="P5" s="42">
-        <v>-9</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="42">
-        <v>2</v>
-      </c>
-      <c r="S5" s="42">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="T5" s="42">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="U5" s="42">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42">
-        <v>2</v>
-      </c>
-      <c r="C6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="D6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="E6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="F6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="G6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="H6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="I6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="K6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="L6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="M6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="O6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="P6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="S6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="T6" s="42">
-        <v>-9</v>
-      </c>
-      <c r="U6" s="42">
+      <c r="R6">
+        <v>-9</v>
+      </c>
+      <c r="S6">
+        <v>-9</v>
+      </c>
+      <c r="T6">
+        <v>-9</v>
+      </c>
+      <c r="U6">
         <v>-9</v>
       </c>
     </row>
@@ -8351,12 +8328,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8420,8 +8397,8 @@
       <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>69</v>
+      <c r="D4" s="41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8434,20 +8411,20 @@
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8461,7 +8438,7 @@
         <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8475,7 +8452,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,7 +8466,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9203,7 +9180,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9395,7 +9372,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>65</v>
